--- a/biology/Mycologie/Leccinum_melaneum/Leccinum_melaneum.xlsx
+++ b/biology/Mycologie/Leccinum_melaneum/Leccinum_melaneum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet rude noir
 Leccinum melaneum, le Bolet rude noir, est une espèce de champignons (Fungi) basidiomycètes du genre Leccinum dans la famille des Boletaceae. Il est caractérisé par ses teintes sombres.
@@ -512,11 +524,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Leccinum melaneum (Smotl.) Pilát &amp; Dermek[1]. Le basionyme de ce taxon est : Boletus scaber melaneus Smotl.[1]
-Synonymes
-Leccinum melaneum a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum melaneum (Smotl.) Pilát &amp; Dermek. Le basionyme de ce taxon est : Boletus scaber melaneus Smotl.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Leccinum_melaneum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_melaneum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Leccinum melaneum a pour synonymes :
 Boletus melaneus (Smotl.) Hlaváek, 1989
 Boletus melaneus (Smotl.) Smotl.
 Boletus scaber var. melaneus Smotl.
@@ -527,39 +576,76 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Leccinum_melaneum</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Leccinum_melaneum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum melaneum, le Bolet rude noir, sont les suivantes :
-Son chapeau mesure 5 à 13 cm de diamètre, de forme convexe puis convexe-étalé, souvent irrégulier, viscidule avec l'âge, très finement tomenteux, de couleur sombre au début, brun, brun foncé à presque noir, parfois avec taches plus pâles[2],[3].
-L'hyménophore présente des pores blanc grisâtre, souvent tachés de brunâtre, devenant brunâtre au froissement[2],[3].
-Son stipe mesurent 9 à 14,5 cm x 2,1 à 5,5 cm, de forme égale à (largement) clavé vers la base, entièrement orné de méches grisâtres à noirâtres sur fond blanc, plus fines vers l'apex, graduellement plus grossières vers la base, souvent agglutinées en une sorte de réticulum à la base[2],[3].
-La chair est blanche, subimmuable à peu roussissante, sans trace de vert[3]. Sa sporée est brune[2].
-Caractéristiques microscopiques
-Ses spores mesurent 15-20 x 5-7 µm[3].
+Son chapeau mesure 5 à 13 cm de diamètre, de forme convexe puis convexe-étalé, souvent irrégulier, viscidule avec l'âge, très finement tomenteux, de couleur sombre au début, brun, brun foncé à presque noir, parfois avec taches plus pâles,.
+L'hyménophore présente des pores blanc grisâtre, souvent tachés de brunâtre, devenant brunâtre au froissement,.
+Son stipe mesurent 9 à 14,5 cm x 2,1 à 5,5 cm, de forme égale à (largement) clavé vers la base, entièrement orné de méches grisâtres à noirâtres sur fond blanc, plus fines vers l'apex, graduellement plus grossières vers la base, souvent agglutinées en une sorte de réticulum à la base,.
+La chair est blanche, subimmuable à peu roussissante, sans trace de vert. Sa sporée est brune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leccinum_melaneum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_melaneum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 15-20 x 5-7 µm.
 </t>
         </is>
       </c>
